--- a/data/trans_bre/P40_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-19,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-46,19%</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-34,58%</t>
+          <t>-61,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>69,54%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42,9%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>225,26%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 0,81</t>
+          <t>-52,08; 0,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 6,54</t>
+          <t>-16,36; 15,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 10,15</t>
+          <t>-6,19; 14,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 8,94</t>
+          <t>-7,82; 15,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-86,04; 7,86</t>
+          <t>-0,52; 20,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-84,04; 73,9</t>
+          <t>-93,09; 6,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 335,92</t>
+          <t>-68,67; 251,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,79; 287,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-33,1; 2712,4</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>12,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>42,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>117,43%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>132,71%</t>
+          <t>103,41%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>139,49%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>58,06%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 17,04</t>
+          <t>-7,19; 17,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 15,47</t>
+          <t>-9,59; 16,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 13,33</t>
+          <t>1,47; 16,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 17,32</t>
+          <t>4,45; 21,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 138,33</t>
+          <t>-2,46; 13,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 138,22</t>
+          <t>-27,59; 144,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,73; 273,24</t>
+          <t>-36,49; 136,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,18; 308,5</t>
+          <t>6,98; 300,06</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20,58; 378,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 195,24</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>59,4%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>181,57%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 9,39</t>
+          <t>-5,44; 11,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 11,85</t>
+          <t>-4,78; 15,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 7,56</t>
+          <t>-12,76; 7,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 10,92</t>
+          <t>-5,22; 12,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 104,27</t>
+          <t>1,43; 14,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 148,5</t>
+          <t>-42,21; 177,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 117,18</t>
+          <t>-36,54; 300,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 253,82</t>
+          <t>-63,24; 118,68</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-47,16; 347,52</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 803,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 9,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 10,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 69,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 79,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 127,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 184,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,51</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,02</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,33</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46,88%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>95,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>96,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 9,2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 11,73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 9,26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 13,15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 11,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-30,37; 70,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-23,26; 113,59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 141,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 221,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 247,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P40_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,227 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-19,91</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,32</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-61,68%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>69,54%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>42,9%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>225,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-19.91179959750792</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.715579783668817</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.785215973823544</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.03879022364665</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>8.828164301562676</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.6167897598397192</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1652083949274868</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6140248606347458</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2506452626388094</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.18232623035515</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-52,08; 0,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,36; 15,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 14,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 15,54</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 20,66</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-93,09; 6,32</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-68,67; 251,67</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-33,1; 2712,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-52.08432882895463</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-22.19011953671346</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.611041721175788</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-10.5593062068502</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.527139840016783</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.9308628646899867</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7634916473313066</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="n">
+        <v>-0.3714387417853712</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.2227614973040218</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.15028094219816</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.03695318216225</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.5111362304814</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>20.03801911725778</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.06324195074737728</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.760125779088492</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="n">
+        <v>24.18507424512442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,87</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,65</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,77</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>42,8%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>34,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>103,41%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>139,49%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>58,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 17,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,59; 16,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 16,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,45; 21,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 13,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-27,59; 144,25</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-36,49; 136,92</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 300,06</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>20,58; 378,44</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-14,82; 195,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.87148068733449</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.740273073631787</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.586857647002178</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.02968910307399</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.985562088221776</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4280210128011021</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2547959164358101</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.663110319228995</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.408312325224664</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.6474100856369697</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,51</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,26</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>37,89%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>82,54%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-4,21%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>59,4%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>181,57%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.187714793540624</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.299365375573716</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.019417680636866</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.876354862003991</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.296764247161416</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2758785929752959</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3898637861142791</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1613822318587255</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1361116008890586</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1597776314693305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; 11,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 15,18</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,76; 7,84</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 12,15</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 14,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-42,21; 177,61</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-36,54; 300,26</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-63,24; 118,68</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-47,16; 347,52</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 803,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.59218566657037</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.08401381577254</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.26537720501761</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.11088341090892</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>14.55711894889538</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.442499344324983</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.205574327919432</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.286172365304298</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.84631956243005</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.12648059907882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +871,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.989097426010174</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.531852653988531</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.415847709328109</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.779335174114445</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.955042068923057</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.378942578111459</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6014891000379051</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1089819286271508</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4538903189391707</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.554662924044987</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.438373065073312</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.010290486059007</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.63365418723029</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.970912949844493</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2965805851136835</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4220552546026647</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3420331729364612</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6586116359250234</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.5123358655360387</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.01816222813528817</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.68558308827848</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.48909048197526</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.795359444117404</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.26557515290054</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>14.85349751534481</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.776059779670509</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.952441887855723</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.009436881686732</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>3.093634791039188</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>7.507618595936855</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,02</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>12,46%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>38,88%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>46,88%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>95,67%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>96,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 9,2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 11,73</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 9,26</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 13,15</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 11,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-30,37; 70,04</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-23,26; 113,59</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 141,5</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>15,8; 221,15</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>22,85; 247,47</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.161462337554046</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.280699182956013</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.048724508871012</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.706714967522362</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.374622731102212</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1245854075938179</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2790101164550103</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2886295340930215</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8783170415127612</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.9497404021067535</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.956947441528174</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.178411957062889</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.19121173926896</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.832716018619641</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.582361556692781</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3037139931533821</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2452596645749582</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2144108936121149</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.09657679361520197</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2049207351389605</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.196876916992675</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.78739793876887</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.233435172646661</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.07645793784877</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.1841916360928</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.700441605023957</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.010876430316529</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.133518653113213</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.160337922008968</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.443821877500248</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
